--- a/csv/version2/VisualPlotting2.xlsx
+++ b/csv/version2/VisualPlotting2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vet-css\csv\version 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vet-css\csv\version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="100">
   <si>
     <t>Room 1</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>202-102-302</t>
+  </si>
+  <si>
+    <t>ComLab 1</t>
+  </si>
+  <si>
+    <t>ComputerLab</t>
   </si>
 </sst>
 </file>
@@ -674,12 +680,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,6 +688,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,7 +1167,7 @@
       <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="42" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -1248,7 +1254,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1339,7 +1345,7 @@
       <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1436,7 @@
       <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1527,7 @@
       <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1607,7 +1613,7 @@
       <c r="D8" s="8">
         <v>5</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1697,7 +1703,7 @@
       <c r="D9" s="4">
         <v>6</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1782,7 @@
       <c r="D10" s="5">
         <v>7</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1812,7 +1818,7 @@
       <c r="D11" s="5">
         <v>8</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +1864,7 @@
       <c r="D12" s="5">
         <v>9</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
@@ -4082,8 +4088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4153,19 +4159,19 @@
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="41" t="s">
         <v>38</v>
       </c>
       <c r="P2" s="1"/>
@@ -4219,7 +4225,7 @@
       <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="42" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="30" t="s">
@@ -4302,7 +4308,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="33" t="s">
         <v>3</v>
       </c>
@@ -4385,7 +4391,7 @@
       <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
@@ -4464,14 +4470,14 @@
       <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="2">
         <v>104</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="39" t="s">
         <v>96</v>
       </c>
       <c r="I6" s="21" t="s">
@@ -4537,14 +4543,14 @@
       <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="2">
         <v>105</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="39" t="s">
         <v>96</v>
       </c>
       <c r="I7" s="21" t="s">
@@ -4609,7 +4615,7 @@
       <c r="D8" s="8">
         <v>5</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="30" t="s">
@@ -4683,7 +4689,7 @@
       <c r="D9" s="4">
         <v>6</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="33" t="s">
         <v>3</v>
       </c>
@@ -4696,16 +4702,16 @@
       <c r="I9" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="L9" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="43" t="s">
+      <c r="N9" s="41" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="1"/>
@@ -4738,7 +4744,7 @@
       <c r="D10" s="5">
         <v>7</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
@@ -4786,14 +4792,14 @@
       <c r="D11" s="5">
         <v>8</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="2">
         <v>104</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="39" t="s">
         <v>95</v>
       </c>
       <c r="I11" s="21" t="s">
@@ -4838,14 +4844,14 @@
       <c r="D12" s="5">
         <v>9</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="2">
         <v>105</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="39" t="s">
         <v>95</v>
       </c>
       <c r="I12" s="21" t="s">
@@ -4879,13 +4885,13 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="43" t="s">
+      <c r="M13" s="41" t="s">
         <v>25</v>
       </c>
       <c r="N13" s="1"/>
@@ -5068,16 +5074,16 @@
     <row r="19" spans="2:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="42" t="s">
+      <c r="N19" s="40" t="s">
         <v>46</v>
       </c>
       <c r="V19" s="1"/>
@@ -5135,6 +5141,18 @@
     <row r="22" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
+      <c r="K22" s="28">
+        <v>403</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>

--- a/csv/version2/VisualPlotting2.xlsx
+++ b/csv/version2/VisualPlotting2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3 (5)" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="101">
   <si>
     <t>Room 1</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>ComputerLab</t>
+  </si>
+  <si>
+    <t>ComLab 2</t>
   </si>
 </sst>
 </file>
@@ -4088,8 +4091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4268,7 +4271,9 @@
       <c r="T3" s="29">
         <v>301</v>
       </c>
-      <c r="U3" s="29"/>
+      <c r="U3" s="29">
+        <v>404</v>
+      </c>
       <c r="V3" s="29">
         <v>0</v>
       </c>
@@ -4277,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="28" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="Z3" s="28">
         <v>1</v>
@@ -4657,7 +4662,7 @@
         <v>5</v>
       </c>
       <c r="Y8" s="28" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="Z8" s="28">
         <v>1</v>
@@ -5165,6 +5170,18 @@
     <row r="23" spans="2:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
+      <c r="K23" s="28">
+        <v>404</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
